--- a/CHARQUEADAS.xlsx
+++ b/CHARQUEADAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F52A6FAB-A2AD-49F6-BE14-313EF55A57A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47BE1DD5-F1C4-4737-AD3F-0A2DAA35D898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="4" r:id="rId5"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1019,7 +1006,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1079,36 +1066,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1142,14 +1105,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,7 +1125,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1199,7 +1157,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4C3940A5-1FEA-4358-B392-E4AC31107C48}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{A8EC763F-0F09-43BF-A4D6-ED6B9F5BDBFB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1229,10 +1187,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682A516E-0EE5-491F-ADF2-9A9B0B561154}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C22F475-C78B-452A-9DC9-2284656DF46B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1270,7 +1228,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C8C211-448B-46EB-A215-8B0E14DD8C90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B76291-C8C9-41E5-973E-2DB24482E88A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1333,7 +1291,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45D2A77-9B39-4C31-8AC2-0231F9171DA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3BA3E5-81C7-4C6B-9233-C2F72F7F0C45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1352,7 +1310,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A42FA2-02AE-742A-D94F-7A286B6B0CDD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3CCB6B-EBA9-A4AC-F27E-DF3A9EECD2A9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1401,7 +1359,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E68ADC9C-92EE-3BFC-7DCB-C1F7BBCFDCC0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC15123-ACF4-0E69-26DB-AEF91886D1F9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1420,7 +1378,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956CAFE8-3522-D3C8-8F21-1714F7A47A9B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1453BEC-ED0D-A65E-145C-1D22DFBB0233}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1451,7 +1409,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD3FC0C-2AB8-736B-B3C7-8C52CB44380F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519B5722-A0A9-7EA9-AF11-EDD400649400}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1482,7 +1440,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E4F366-E0AB-FAC2-8CDD-F36A3167A51B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F880F3E9-7061-C857-0F6D-6BB28D8694CB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1525,7 +1483,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13089754-134E-4B80-8D48-02068DE8C244}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405D5258-B2E0-4B7A-BAB7-DB3E6DC6C71E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,7 +1521,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D91EEA3-4167-402F-9D6F-811A06456044}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA42DC5-AF3D-41DF-9361-F9284472FDF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,7 +1564,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016936A7-6110-45EB-AA7B-7DE4C97599CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0573504-2216-4C6F-91BF-03FC7773BBC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +1877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCDD6DB-FB43-4C85-82B4-7EEB909B9770}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE69725A-29A6-4009-8867-9D8A87FB884E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1931,98 +1889,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="36"/>
-    <col min="6" max="6" width="2" style="36" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="36"/>
+    <col min="1" max="5" width="12.5703125" style="33"/>
+    <col min="6" max="6" width="2" style="33" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="35"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="35"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="35"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="35"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="35"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="35"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="35"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="35"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="35"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="35"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="35"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="35"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="35"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="35"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="35"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="35"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="35"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="35"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="35"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="35"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="35"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="35"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="35"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="35"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="35"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="35"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="35"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="35"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="35"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5169,19 +5127,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5204,46 +5162,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5268,101 +5226,102 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="18" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="21">
         <v>45170</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="22">
         <v>3012</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="23">
         <v>15569</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="23">
         <v>1465</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="25" t="s">
         <v>283</v>
       </c>
     </row>
@@ -5387,31 +5346,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="31">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="28">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="31">
         <v>81</v>
       </c>
-      <c r="F1" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" s="34">
-        <v>81</v>
-      </c>
-      <c r="C2" s="32">
+      <c r="C2" s="29">
         <v>5.3564343340827929E-3</v>
       </c>
     </row>

--- a/CHARQUEADAS.xlsx
+++ b/CHARQUEADAS.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47BE1DD5-F1C4-4737-AD3F-0A2DAA35D898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86EF9EE5-00B4-4ED8-9C33-D79B31B2C3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="6" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" r:id="rId2"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="2" r:id="rId3"/>
     <sheet name="CPIP" sheetId="3" r:id="rId4"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="4" r:id="rId5"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="5" r:id="rId6"/>
+    <sheet name="DGC" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="291">
   <si>
     <t>Número</t>
   </si>
@@ -886,6 +887,18 @@
   </si>
   <si>
     <t>CHARQUEADAS</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MOT-Diversos</t>
+  </si>
+  <si>
+    <t>Gustavo Fahrion Rodrigues - aceitou terceirizado sem contrato</t>
   </si>
 </sst>
 </file>
@@ -895,7 +908,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -948,6 +961,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -962,7 +988,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -997,6 +1023,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4C7C3"/>
         <bgColor rgb="FFF4C7C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1069,9 +1101,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1152,12 +1184,16 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{A8EC763F-0F09-43BF-A4D6-ED6B9F5BDBFB}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{B61D8171-B73E-4060-8ACA-D939A71CED1C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1187,10 +1223,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C22F475-C78B-452A-9DC9-2284656DF46B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDBA84E-7ADE-4D84-AB8E-A6691F873A1B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1228,7 +1264,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B76291-C8C9-41E5-973E-2DB24482E88A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69AA1B7-D132-439F-9589-9B151AFD77ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1291,7 +1327,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3BA3E5-81C7-4C6B-9233-C2F72F7F0C45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BACC43-D2C7-4028-A9C3-3392A216DB30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,7 +1346,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3CCB6B-EBA9-A4AC-F27E-DF3A9EECD2A9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD68CFF8-D7B4-8E7E-7BF3-A7F7ACE808AF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1359,7 +1395,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC15123-ACF4-0E69-26DB-AEF91886D1F9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3398696-5358-D31A-2F72-78D5E5D4E6E1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1378,7 +1414,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1453BEC-ED0D-A65E-145C-1D22DFBB0233}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E8412B-48E1-85CF-CEB5-0ACC7A0D6565}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1409,7 +1445,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519B5722-A0A9-7EA9-AF11-EDD400649400}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCBDAD84-F427-6B74-D4B6-EB7C59A2B651}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1440,7 +1476,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F880F3E9-7061-C857-0F6D-6BB28D8694CB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB9C7B0-7185-CF45-E9AA-D3B9E55DEE94}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1483,7 +1519,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405D5258-B2E0-4B7A-BAB7-DB3E6DC6C71E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D208B3F-E7F0-4B3D-9252-3459F88D2ED2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1521,7 +1557,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA42DC5-AF3D-41DF-9361-F9284472FDF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92AE678-CF00-42FD-A693-A4C61F5FA93A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1564,7 +1600,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0573504-2216-4C6F-91BF-03FC7773BBC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE11DC2-4FF1-49FF-8CC6-53D47EA82E11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE69725A-29A6-4009-8867-9D8A87FB884E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7B04C-C1E4-44EE-9D56-8D4059401984}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1889,98 +1925,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="33"/>
-    <col min="6" max="6" width="2" style="33" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="33"/>
+    <col min="1" max="5" width="12.5703125" style="35"/>
+    <col min="6" max="6" width="2" style="35" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="32"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="32"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="32"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="32"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="32"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="32"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="32"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="32"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="32"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="32"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="32"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="32"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="32"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="32"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="32"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="32"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="32"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="32"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="32"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="32"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="32"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="32"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="32"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="32"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="32"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="32"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="32"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="32"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="32"/>
+      <c r="F29" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5376,4 +5412,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/CHARQUEADAS.xlsx
+++ b/CHARQUEADAS.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86EF9EE5-00B4-4ED8-9C33-D79B31B2C3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEC8B0FC-B3E3-4F50-8AD8-C6B463D6460F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" r:id="rId2"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="2" r:id="rId3"/>
     <sheet name="CPIP" sheetId="3" r:id="rId4"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="4" r:id="rId5"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="5" r:id="rId6"/>
-    <sheet name="DGC" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="4" r:id="rId5"/>
+    <sheet name="DGC" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="288">
   <si>
     <t>Número</t>
   </si>
@@ -878,15 +877,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>CHARQUEADAS</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -1103,7 +1093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1166,24 +1156,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1193,7 +1165,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{B61D8171-B73E-4060-8ACA-D939A71CED1C}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{23A191C4-FBEA-444B-9FE4-8A636003AEE9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1223,10 +1195,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDBA84E-7ADE-4D84-AB8E-A6691F873A1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754ABC60-EA08-4C04-967D-D66A3681372F}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1236,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69AA1B7-D132-439F-9589-9B151AFD77ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92AFCD24-B120-499C-8190-B15C51AD22F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,7 +1299,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BACC43-D2C7-4028-A9C3-3392A216DB30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8391AF50-2DC3-4D77-8A17-3B308CD20ABE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,7 +1318,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD68CFF8-D7B4-8E7E-7BF3-A7F7ACE808AF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C8C9AE-B7F4-4334-3023-7568BD1A6806}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1395,7 +1367,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3398696-5358-D31A-2F72-78D5E5D4E6E1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7CB432-2BBB-5BE4-6326-819157C185A8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1414,7 +1386,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E8412B-48E1-85CF-CEB5-0ACC7A0D6565}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC3CD530-6B86-41BB-A0B1-B834ADF8C877}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1445,7 +1417,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCBDAD84-F427-6B74-D4B6-EB7C59A2B651}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8097A9B-73F8-E984-197A-0521B5D8E61C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1476,7 +1448,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB9C7B0-7185-CF45-E9AA-D3B9E55DEE94}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736999E7-B216-7FDF-B5B2-3C76AC16EEDD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1519,7 +1491,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D208B3F-E7F0-4B3D-9252-3459F88D2ED2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2834970E-D94D-46FA-A1C0-238A70EE8CD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1557,7 +1529,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92AE678-CF00-42FD-A693-A4C61F5FA93A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DDA91C1-AA8A-4F8F-9894-4CA18D0479B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1572,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE11DC2-4FF1-49FF-8CC6-53D47EA82E11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{327085B6-CE6F-4DD8-856B-15DF8EA6FFE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7B04C-C1E4-44EE-9D56-8D4059401984}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BB5806-D54F-4896-8E01-8FB213122D90}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1925,98 +1897,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="35"/>
-    <col min="6" max="6" width="2" style="35" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="35"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="34"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="34"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="34"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="34"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="34"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="34"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="34"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="34"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="34"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="34"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="34"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="34"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="34"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="34"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="34"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="34"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="34"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="34"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="34"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="34"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="34"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="34"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="34"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="34"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="34"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="34"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="34"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="34"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="34"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5368,54 +5340,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="E1" s="28">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" s="31">
-        <v>81</v>
-      </c>
-      <c r="C2" s="29">
-        <v>5.3564343340827929E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5428,25 +5352,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>287</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/CHARQUEADAS.xlsx
+++ b/CHARQUEADAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEC8B0FC-B3E3-4F50-8AD8-C6B463D6460F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C4103CB-CCA4-4383-BD57-A71AC003008F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1165,7 +1165,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{23A191C4-FBEA-444B-9FE4-8A636003AEE9}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{123A013D-6D10-452C-96C3-26F19A426E6F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1195,10 +1195,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754ABC60-EA08-4C04-967D-D66A3681372F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7366265E-9CE3-4838-AA9A-40E1F27E2FCC}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1236,7 +1236,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92AFCD24-B120-499C-8190-B15C51AD22F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6827206F-E47F-44F4-B671-E91C749B101A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,7 +1299,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8391AF50-2DC3-4D77-8A17-3B308CD20ABE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E737C148-05B0-4ABD-8334-1876005950FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1318,7 +1318,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C8C9AE-B7F4-4334-3023-7568BD1A6806}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5599A2-22B8-3F6B-B680-3A804F44AC7B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1367,7 +1367,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7CB432-2BBB-5BE4-6326-819157C185A8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82B9760-CD07-270E-B88A-DADA39987D0C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1386,7 +1386,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC3CD530-6B86-41BB-A0B1-B834ADF8C877}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD64F5F6-0BE3-6102-0E37-8A5D38C0F299}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1417,7 +1417,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8097A9B-73F8-E984-197A-0521B5D8E61C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD6788A-5976-A5AA-0EC9-A2280E756672}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1448,7 +1448,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736999E7-B216-7FDF-B5B2-3C76AC16EEDD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA578BC-7718-6A77-BE67-4532C38576A2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1491,7 +1491,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2834970E-D94D-46FA-A1C0-238A70EE8CD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F7FD0B-EDC3-4878-BB44-7F3618ADF996}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1529,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DDA91C1-AA8A-4F8F-9894-4CA18D0479B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D226322-56D4-4E42-A8EE-1C6065B9168F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,50 +1554,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{327085B6-CE6F-4DD8-856B-15DF8EA6FFE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1885,7 +1841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BB5806-D54F-4896-8E01-8FB213122D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643C85D5-BB16-4DD2-BEAE-6EA3BFB08FFF}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/CHARQUEADAS.xlsx
+++ b/CHARQUEADAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C4103CB-CCA4-4383-BD57-A71AC003008F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AAD7A16-8202-4853-9720-49C8586F6C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -901,14 +901,6 @@
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -936,6 +928,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1040,21 +1040,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1088,6 +1073,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1095,77 +1095,77 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{123A013D-6D10-452C-96C3-26F19A426E6F}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{BEB8FAB5-5553-4302-9931-D8E31BC22D2E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1195,7 +1195,7 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7366265E-9CE3-4838-AA9A-40E1F27E2FCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7FD36D-78D3-4DD3-9537-5224E4D42190}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
               <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
@@ -1236,7 +1236,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6827206F-E47F-44F4-B671-E91C749B101A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1368A08D-814A-44CD-B7BC-F07D2D5F1460}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,7 +1299,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E737C148-05B0-4ABD-8334-1876005950FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{755E12A7-A21A-4FAE-A25B-2A5B45906A9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1318,7 +1318,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5599A2-22B8-3F6B-B680-3A804F44AC7B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D8B487-4E26-3404-D00E-46368B27D655}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1367,7 +1367,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82B9760-CD07-270E-B88A-DADA39987D0C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502DD9B3-08F4-1CB5-FD35-B029790B3A01}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1386,7 +1386,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD64F5F6-0BE3-6102-0E37-8A5D38C0F299}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BE4D342-DAEE-1D41-A2A5-F5BCB26BAE6F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1417,7 +1417,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD6788A-5976-A5AA-0EC9-A2280E756672}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA34339F-419A-0155-12D3-19C79A08C42C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1448,7 +1448,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA578BC-7718-6A77-BE67-4532C38576A2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7F3569-E628-D390-3CB3-EBF75732CD6C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1491,7 +1491,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F7FD0B-EDC3-4878-BB44-7F3618ADF996}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25150213-4F93-4CC1-836A-3656A3DCA54D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1529,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D226322-56D4-4E42-A8EE-1C6065B9168F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B94C509-F3AA-47BC-B955-AE9937C1F725}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1841,7 +1841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643C85D5-BB16-4DD2-BEAE-6EA3BFB08FFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F91868-DDAE-4ED4-B428-D61F7AB34824}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
